--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.196</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.25</v>
+        <v>16.562</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.142</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.679</v>
+        <v>14.677</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.304</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.955</v>
+        <v>7.008</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.981963322788062</v>
+        <v>5.985986058724027</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.62926741213559</v>
+        <v>15.28035977046189</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.86958734236143</v>
+        <v>13.14926624160828</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.64857046849353</v>
+        <v>13.77630014621723</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.829174150400535</v>
+        <v>14.95912110466939</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.2008951988232</v>
+        <v>25.38823181676329</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.565862839958616</v>
+        <v>1.495804351632334</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.28919917410765</v>
+        <v>20.77885684226307</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.5455350344018</v>
+        <v>31.50399260959525</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.3266412959108</v>
+        <v>30.91413610085609</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.41838961706246</v>
+        <v>13.97199976859646</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.86561297779186</v>
+        <v>37.65371671448289</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.818942766069998</v>
+        <v>-2.26841146208881</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.54552356229545</v>
+        <v>16.69541225603638</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.7963519749859</v>
+        <v>28.08359910184578</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33.58055458179671</v>
+        <v>28.8168574843621</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.6683611416682</v>
+        <v>8.105528054727472</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.11863884110081</v>
+        <v>30.48947648115356</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.900636601468815</v>
+        <v>-3.87411356070136</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.61157508501255</v>
+        <v>14.27635276968035</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.85547501190803</v>
+        <v>22.97878910080148</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32.64605856946883</v>
+        <v>24.88650202905019</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.74490882665726</v>
+        <v>8.178188789116891</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.1792990565005</v>
+        <v>27.60381602167375</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.48131579037986</v>
+        <v>22.31954549352191</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.75932309536595</v>
+        <v>26.25456530429529</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17.25915032840605</v>
+        <v>11.35113580641974</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.68439372106075</v>
+        <v>24.85876129323551</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.68027537261739</v>
+        <v>27.0345582029343</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43.05462653696445</v>
+        <v>32.46468559071835</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.15548021262558</v>
+        <v>47.09697166849264</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.43785579820761</v>
+        <v>51.04353615648857</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18.91157600388328</v>
+        <v>16.91514472066809</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.4141800902938</v>
+        <v>46.28564732851445</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.42420272205969</v>
+        <v>63.37517935166647</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.80115596267387</v>
+        <v>66.4843635997201</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.40163986734719</v>
+        <v>38.78709341761495</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.6873358826042</v>
+        <v>45.55034798251393</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.17695538349486</v>
+        <v>11.8065376209755</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.68262550530681</v>
+        <v>41.66442834051056</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.68591425102679</v>
+        <v>57.67445962086344</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>45.06578947890986</v>
+        <v>62.71471824407217</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.45738179996703</v>
+        <v>30.77695446558256</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.74882868077742</v>
+        <v>38.56895947625809</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.24337764606588</v>
+        <v>12.71568849316491</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.73392395717294</v>
+        <v>40.69079659001844</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.72978029537002</v>
+        <v>51.46044546224174</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>44.11696346352233</v>
+        <v>58.78519601952279</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.75840000504963</v>
+        <v>12.59070641166415</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.84878448687808</v>
+        <v>38.12762474158949</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.24767805305638</v>
+        <v>35.96529387639717</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.83275096815727</v>
+        <v>37.28612232586782</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>11.57833062792187</v>
+        <v>11.38514072023199</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.29839248766961</v>
+        <v>30.88352770463853</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>12.28479371341332</v>
+        <v>8.538169507746158</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.4519108956607</v>
+        <v>43.30026367680438</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.8650060872742</v>
+        <v>52.10931579266477</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.45081698630401</v>
+        <v>51.94629549551335</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>13.1080854379696</v>
+        <v>10.49882940349207</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.90414193284398</v>
+        <v>42.43502681021042</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.52994766187984</v>
+        <v>5.963033160965452</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.69988027834749</v>
+        <v>40.00667394549167</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.10856356453156</v>
+        <v>50.21329703933385</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.69684487227685</v>
+        <v>51.22479554741328</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>13.35124860623669</v>
+        <v>5.979998956917264</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.14995073357955</v>
+        <v>36.23961001744998</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11.65066974333658</v>
+        <v>5.44714356242357</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.80493655369582</v>
+        <v>38.55931467060057</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.20686157475075</v>
+        <v>46.96231296790192</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.80205143699835</v>
+        <v>49.50512482900974</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.46509055207802</v>
+        <v>3.886970400482955</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.24785656202883</v>
+        <v>30.63837885682316</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.89332700213559</v>
+        <v>31.95722478591906</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.93289215718951</v>
+        <v>35.51832833101246</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>18.74586286124569</v>
+        <v>8.576851210854556</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>37.53008237294468</v>
+        <v>32.23136049180609</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.8145227458326</v>
+        <v>34.77455524558545</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.94924313136109</v>
+        <v>40.62726431339895</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.5072101455826</v>
+        <v>53.51766903533976</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.54973034097414</v>
+        <v>56.63941550218303</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20.33258618029112</v>
+        <v>12.04567129371992</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>39.19487298409526</v>
+        <v>50.69381597850483</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.49195831209607</v>
+        <v>65.36588727538154</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.62759442011892</v>
+        <v>68.22492233623413</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.74717386614326</v>
+        <v>46.7196645601223</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.79243880715742</v>
+        <v>52.32091686323214</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20.58929990686769</v>
+        <v>7.916739472019255</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.45421891037499</v>
+        <v>46.61684442367842</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.74567961253019</v>
+        <v>60.7768923626224</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>45.88359072093216</v>
+        <v>65.23335110691335</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.84017622894264</v>
+        <v>36.71409505283651</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.89168098727014</v>
+        <v>43.61760217189193</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19.69545437642122</v>
+        <v>7.685051760106816</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.54510651741964</v>
+        <v>43.86678172099347</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.8293667216933</v>
+        <v>54.29573046074742</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.97519996000919</v>
+        <v>61.36817466268506</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.666202718821708</v>
+        <v>12.54701042934431</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.73183663740735</v>
+        <v>35.32313620055442</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.46241607118184</v>
+        <v>34.61729417518539</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.97936211240881</v>
+        <v>34.843386501521</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>11.12699227283689</v>
+        <v>13.39692330145837</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.83505129669112</v>
+        <v>34.47275965642527</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.19604722781734</v>
+        <v>11.12898423176471</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.33865833928652</v>
+        <v>43.61371387755096</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.08364027754236</v>
+        <v>54.03962117437494</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.60133235951632</v>
+        <v>52.81411655125734</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.66075355132971</v>
+        <v>13.5881709066786</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30.44507391100415</v>
+        <v>47.46341749873054</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11.44296280498478</v>
+        <v>8.532783886791755</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.58854877741016</v>
+        <v>40.71703611661476</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.32878080519636</v>
+        <v>52.46453501427794</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.84894357535217</v>
+        <v>52.28736692510136</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>12.90543031979052</v>
+        <v>10.14970729700568</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.692554414539</v>
+        <v>42.82345572660833</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>10.55991716189432</v>
+        <v>7.891793388801315</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.68970839214902</v>
+        <v>39.40517729309313</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>32.42366832900549</v>
+        <v>49.5731604689699</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.95054287916928</v>
+        <v>50.78288179675593</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12.01631621009386</v>
+        <v>9.000881343989342</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.78738579016213</v>
+        <v>38.54334058575817</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.74152683679992</v>
+        <v>37.4005562290652</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.71783901917794</v>
+        <v>39.01044587015637</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>18.36155661014125</v>
+        <v>9.382574799905804</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>37.14585888255133</v>
+        <v>34.32321305658557</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.74503077480698</v>
+        <v>40.02972014213776</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.80756570325079</v>
+        <v>43.49063270001211</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.35998231634021</v>
+        <v>60.68067568198801</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.33920199511975</v>
+        <v>61.83548619860391</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>19.95218627646627</v>
+        <v>14.20210159278338</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.81478889017708</v>
+        <v>54.5016567735143</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.42682057512045</v>
+        <v>72.72104666659931</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>45.49029416823802</v>
+        <v>73.21626842194476</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.60131344613819</v>
+        <v>55.50893586372187</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.58326206244328</v>
+        <v>58.90522820028688</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>20.21021185825577</v>
+        <v>10.37338731202932</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.07558790091141</v>
+        <v>51.21707861514815</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.68168175132816</v>
+        <v>68.99269771289555</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.74742942834096</v>
+        <v>70.87493468508129</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>32.69161469187617</v>
+        <v>46.84467765689235</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>35.67964378082947</v>
+        <v>51.28885051287507</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.31351440714877</v>
+        <v>10.75175656400485</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>38.16354955350414</v>
+        <v>49.65313246992989</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>41.76289998908291</v>
+        <v>63.67582423593858</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>44.83634907805758</v>
+        <v>67.80888074319564</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>7.342972048113589</v>
+        <v>8.536986539714974</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.52113183339757</v>
+        <v>16.17522279240099</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.75462854784041</v>
+        <v>16.44233419259328</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.44017588134041</v>
+        <v>17.21563755870492</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>10.01927672055624</v>
+        <v>14.93911075006435</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.93073250939484</v>
+        <v>23.5130114559652</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.902731071427157</v>
+        <v>4.970413020685484</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.15545593510053</v>
+        <v>22.33174102010367</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.40411319639437</v>
+        <v>34.66438489148582</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.09170275393193</v>
+        <v>34.39080326959742</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.58337643558666</v>
+        <v>15.56650843992993</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.5688226766726</v>
+        <v>37.07494475122931</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>9.151538441136406</v>
+        <v>1.638339071307527</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.4075102984869</v>
+        <v>18.67125418675372</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.65081860144192</v>
+        <v>31.32333733180943</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.34139757902897</v>
+        <v>32.2744043730681</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>11.82907436881624</v>
+        <v>9.982619320468817</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.81757582111464</v>
+        <v>30.20347188645259</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.248910559038579</v>
+        <v>-0.1963683456886152</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.48930472119423</v>
+        <v>16.00451815627677</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.72629017471979</v>
+        <v>26.24384694314011</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.42311120437008</v>
+        <v>28.1893048234103</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10.92176286032681</v>
+        <v>8.553924929012943</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.89448604653943</v>
+        <v>25.80105756900438</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.21782834185818</v>
+        <v>19.50612210555907</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.39278735963037</v>
+        <v>24.00572975355031</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.47331845026104</v>
+        <v>11.2259385703104</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.4155143747199</v>
+        <v>22.04976085625587</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.38424950736178</v>
+        <v>24.77969612218316</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.66807132898108</v>
+        <v>30.42666499950566</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.86470250731057</v>
+        <v>45.32213254006032</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>35.04391413360331</v>
+        <v>49.92973070483104</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.10001832471056</v>
+        <v>19.34198421331401</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.11805606746334</v>
+        <v>45.41736372469749</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>41.10018771361793</v>
+        <v>62.55130807562884</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.38655018358261</v>
+        <v>66.1479521565569</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.10678425744749</v>
+        <v>37.3232915776489</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.28920581834614</v>
+        <v>44.55229423451908</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.36068455482419</v>
+        <v>14.34735690353146</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>37.38178031154906</v>
+        <v>40.74778417354622</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>41.35739285962597</v>
+        <v>56.66826201159287</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>44.64657193076724</v>
+        <v>62.0833445499583</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.17928816217535</v>
+        <v>27.80753727198877</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.36732418939558</v>
+        <v>35.86754863214959</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18.44335275240991</v>
+        <v>12.66552716820064</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.44940766093656</v>
+        <v>37.26914903437428</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.4181270116063</v>
+        <v>48.1466400723329</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.71445327427889</v>
+        <v>55.53256602550626</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.67398246890872</v>
+        <v>11.3987446963061</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.62944142046734</v>
+        <v>33.48223444493873</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.73340634785369</v>
+        <v>33.05116091898169</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.39589290667939</v>
+        <v>33.42556731821875</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>14.42173985370652</v>
+        <v>17.1453226450674</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.08205596306222</v>
+        <v>37.09258684355768</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.25000793795053</v>
+        <v>11.30278520698247</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.28194787148782</v>
+        <v>43.56824088195796</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.40169436312247</v>
+        <v>55.8493681677313</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>38.06583509537294</v>
+        <v>54.96151994799346</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16.00218445110836</v>
+        <v>17.98583419577858</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.73836414938958</v>
+        <v>51.13015525959096</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>13.50121735648056</v>
+        <v>10.13793168312102</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.53622573449572</v>
+        <v>42.2390695046032</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.65084284032743</v>
+        <v>55.76267701071021</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.31787306670353</v>
+        <v>56.01770653528999</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.25012489384623</v>
+        <v>14.26154536513507</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.98920559023603</v>
+        <v>46.36025622106123</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>12.59786934913767</v>
+        <v>9.220724990016862</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.61743382485171</v>
+        <v>40.88053715015078</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.72492736923913</v>
+        <v>51.86780251441182</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.39842209643196</v>
+        <v>53.1537305660997</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>15.3419283285844</v>
+        <v>14.26369293452361</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.06533864570368</v>
+        <v>43.84469810373702</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.27069169115808</v>
+        <v>40.13698766692436</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.41076758162642</v>
+        <v>41.35040576365574</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>21.12369943734976</v>
+        <v>11.35734623654587</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>39.80481650681759</v>
+        <v>32.48778637660049</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>43.70461620777209</v>
+        <v>38.04727368663197</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.95035922712233</v>
+        <v>41.75502096805667</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.93642418474141</v>
+        <v>67.20183888846078</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>40.08032747479339</v>
+        <v>68.12472566295186</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.76365677417067</v>
+        <v>16.1763693701889</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.52252500352422</v>
+        <v>52.91123047048277</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>45.43649637561318</v>
+        <v>73.53422837771413</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>48.68426592526262</v>
+        <v>74.63165918978819</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.18077676382253</v>
+        <v>61.97151564925876</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>23.02662195112804</v>
+        <v>12.14444544010929</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>41.78838962336629</v>
+        <v>49.42164391528415</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>45.69603310167108</v>
+        <v>69.61538030594676</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>48.94650470199712</v>
+        <v>72.32219160247345</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.25173168302005</v>
+        <v>53.890102571334</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.40458349338042</v>
+        <v>58.23500703194181</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.10922338274509</v>
+        <v>14.84081865204269</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.85601917890413</v>
+        <v>50.75753817740004</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>44.75596859779488</v>
+        <v>65.68490965230595</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.0138657010914</v>
+        <v>70.5848068245252</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.61283764775591</v>
+        <v>9.504713597197405</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46.08807470193912</v>
+        <v>37.84707881013947</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>48.6844250218782</v>
+        <v>36.77901892240477</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.86271695794468</v>
+        <v>36.94657969501904</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.29544339403222</v>
+        <v>13.4746646668895</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.4646218976173</v>
+        <v>40.49979369465275</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.00987007879874</v>
+        <v>6.505463832998942</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>47.55392006651662</v>
+        <v>43.0688281470974</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.16318343742488</v>
+        <v>53.00985006130481</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>52.34173352556618</v>
+        <v>51.64833597906042</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.6957200355403</v>
+        <v>12.33378836951461</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>48.93304252957417</v>
+        <v>50.87109572980907</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.22135013783853</v>
+        <v>4.959830737472767</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>47.76787755276191</v>
+        <v>41.37099360803247</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>50.37394399598224</v>
+        <v>53.11155735000796</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>52.55453088055528</v>
+        <v>52.55062106776509</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>32.9044371891848</v>
+        <v>9.054737332196591</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>49.14411222973298</v>
+        <v>46.6515182575306</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.45416871316324</v>
+        <v>6.706009290012897</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>46.98721497340445</v>
+        <v>43.26746640007386</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.58605585715309</v>
+        <v>52.62824138114991</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>51.77282303342532</v>
+        <v>53.52050512885889</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.13195547802748</v>
+        <v>8.865423124922156</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>48.35794866547126</v>
+        <v>43.99929383363821</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>49.30872679093601</v>
+        <v>42.3187061758748</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>51.89837571421999</v>
+        <v>43.6340298115126</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.4035762000888</v>
+        <v>9.161167123265464</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>53.4321743871805</v>
+        <v>36.45433025404699</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>55.93884260816142</v>
+        <v>39.58466384090924</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>58.59673259944639</v>
+        <v>43.55328708039792</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>50.78478199399965</v>
+        <v>62.97173253888316</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>53.37662895637507</v>
+        <v>63.54191819336235</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.8511556304877</v>
+        <v>11.82026371015836</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>57.46810166653621</v>
+        <v>67.64864128347128</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>60.1263295210464</v>
+        <v>68.71506947362474</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>50.99137055502371</v>
+        <v>58.4314380671402</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>53.58547466792873</v>
+        <v>60.95956082639675</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>38.07245436481688</v>
+        <v>8.742743932607333</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>55.17337313990096</v>
+        <v>50.06108163593581</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.68749264816807</v>
+        <v>64.94894223725539</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>60.34756107819302</v>
+        <v>67.13859877771665</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>50.19952498269324</v>
+        <v>50.91286141752932</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>52.79923798007435</v>
+        <v>54.66621548391687</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>37.29353242041805</v>
+        <v>11.24283697067141</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>54.38124631231214</v>
+        <v>51.45528531446317</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>56.88764976734911</v>
+        <v>62.15684969047346</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>59.55482985856412</v>
+        <v>66.59953498167718</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.19485395510392</v>
+        <v>4.765752896807481</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.64192649962324</v>
+        <v>11.07800040145002</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.82655943036958</v>
+        <v>12.65690993000764</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.31099305949991</v>
+        <v>13.13459527294575</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18.4019382654141</v>
+        <v>12.22994962486517</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>33.58863455569053</v>
+        <v>24.03655268461446</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>17.59450146418379</v>
+        <v>-0.9281553618054303</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.10859529283328</v>
+        <v>14.06060946066444</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.30571989058716</v>
+        <v>26.50460929393316</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.79205835741515</v>
+        <v>25.84343860165569</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>19.80720267870039</v>
+        <v>11.49544160818402</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.06039783623755</v>
+        <v>35.14975620401688</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.81018494784211</v>
+        <v>-5.166206101475023</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.32728243069528</v>
+        <v>9.274760459977113</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.51950890553609</v>
+        <v>22.80727843947264</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>39.00850795435257</v>
+        <v>23.22445320543305</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.02053112621669</v>
+        <v>7.2291694096781</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.2765270342829</v>
+        <v>29.46606550676687</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.01334108690408</v>
+        <v>-6.368990899643975</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.51643165372136</v>
+        <v>7.452053606229853</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.70279862957156</v>
+        <v>18.34073459514266</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>38.19741582601993</v>
+        <v>19.92354094380132</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.21832427198386</v>
+        <v>7.234141519595276</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.4601041253071</v>
+        <v>26.6067893276824</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.91557932889586</v>
+        <v>22.93432510428202</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>38.86315767928631</v>
+        <v>26.18413410209565</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.58811381975203</v>
+        <v>8.155856709150449</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>41.73857877484856</v>
+        <v>24.24914993079722</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.72946253450984</v>
+        <v>28.77371059903491</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>47.70185384637504</v>
+        <v>32.49578864332496</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.39437026863946</v>
+        <v>43.55017289895467</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>40.34584812043924</v>
+        <v>46.75267501027946</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.05101306823277</v>
+        <v>14.81165025879724</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>43.2697793734643</v>
+        <v>45.17223678930685</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>46.27130794591175</v>
+        <v>61.42375932260164</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.24595175374645</v>
+        <v>62.96469348841661</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.6044739941174</v>
+        <v>37.13776212754238</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.558823422209</v>
+        <v>42.75519402837697</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.27789031002511</v>
+        <v>11.55588755858328</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.49949537450932</v>
+        <v>42.22869674739724</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>46.49502213076386</v>
+        <v>57.77077225499384</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>49.47217877862862</v>
+        <v>60.91577862696892</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.78369392234831</v>
+        <v>30.20601102667399</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>39.74314399167625</v>
+        <v>36.66413501883048</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.46634670202609</v>
+        <v>12.14278488541104</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.67437941243053</v>
+        <v>41.19804309983161</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>45.66377378922365</v>
+        <v>52.73183001187153</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>48.64733907348916</v>
+        <v>57.76352311083588</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>15.8815000717244</v>
+        <v>1.697364887245904</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.7413853815927</v>
+        <v>7.010362033725297</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.37801347547668</v>
+        <v>5.37055657991181</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>39.05607394780124</v>
+        <v>6.922249754624207</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>18.18106062747649</v>
+        <v>3.827129706890922</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.7630430357828</v>
+        <v>6.403071586286281</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>17.39595053017278</v>
+        <v>-4.165705198877177</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.32843775191021</v>
+        <v>10.44478813048841</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>37.9798311051491</v>
+        <v>20.17927092966027</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.6598754467694</v>
+        <v>20.7165731040379</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.6987180322861</v>
+        <v>-1.823977825254484</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.3527232216824</v>
+        <v>13.17929617673031</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.63331832309886</v>
+        <v>-6.322152505471323</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.5688719890427</v>
+        <v>7.882640293749596</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>38.21542932362038</v>
+        <v>18.14067882049333</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.89826309256065</v>
+        <v>19.93743229667246</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.9331032779074</v>
+        <v>-5.965643665048802</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.59000618727451</v>
+        <v>7.700959652737335</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.77219455926676</v>
+        <v>-9.070770769334331</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>33.69275776971745</v>
+        <v>4.622587502948626</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.3323081194843</v>
+        <v>12.76304977124377</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.0213309742478</v>
+        <v>15.56698127191117</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>19.06746253734777</v>
+        <v>-6.870179893715004</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.7091619538827</v>
+        <v>4.134993893290272</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.54783078395014</v>
+        <v>6.779384810677129</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>40.67471734764245</v>
+        <v>11.138048228167</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.68095112426069</v>
+        <v>2.193530412367863</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.24026178111266</v>
+        <v>7.310691568448597</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>45.68473821042502</v>
+        <v>10.41270113012887</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>48.93774207901964</v>
+        <v>18.57461060613283</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.14615986663549</v>
+        <v>25.0229130946934</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.27709634658587</v>
+        <v>29.55476318378962</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.25705685971232</v>
+        <v>2.914090196977774</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>43.89021823061934</v>
+        <v>22.88305563907976</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>47.34784855367266</v>
+        <v>39.31614105016919</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>50.6032801578342</v>
+        <v>45.5463513292876</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>39.37729366344248</v>
+        <v>18.4730901760418</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.51122919166475</v>
+        <v>25.61628562183698</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.50610808236037</v>
+        <v>-0.9287950677726613</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>44.14216915948331</v>
+        <v>19.34436937800194</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>47.59379570756292</v>
+        <v>34.67362337609246</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>50.85185759547167</v>
+        <v>42.7511064494561</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.49136513529994</v>
+        <v>10.11270395577021</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>41.63088599233457</v>
+        <v>17.96979232772904</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.63098759775252</v>
+        <v>-0.1389687004052504</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>43.252497565593</v>
+        <v>18.60616384541495</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>46.69660202387114</v>
+        <v>29.17256086489967</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>49.96175755084789</v>
+        <v>39.26921037127417</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.7757902708892</v>
+        <v>10.52648551842615</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>43.09662409292275</v>
+        <v>37.97874172235511</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>46.06414845895414</v>
+        <v>40.71743861249188</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>48.43571418030879</v>
+        <v>40.95584998488527</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.755984747266</v>
+        <v>7.5838578329552</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>42.70357543990266</v>
+        <v>28.88369502920445</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.23785875396014</v>
+        <v>8.266955667134276</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.63117779368066</v>
+        <v>44.68512837883823</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>47.6122813208929</v>
+        <v>59.11700211669111</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.98448835134342</v>
+        <v>57.86099686612632</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.21893453547074</v>
+        <v>7.23483171266367</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.23819379930723</v>
+        <v>40.5878299529763</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.46173781711551</v>
+        <v>5.062696899949831</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>44.85781664477616</v>
+        <v>41.52986443897611</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>47.83495073062171</v>
+        <v>57.52678145758425</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>50.20942038936511</v>
+        <v>57.18663587515912</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.44124473957613</v>
+        <v>3.145738437072161</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>44.46310575187954</v>
+        <v>35.66014555041849</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.64475821047522</v>
+        <v>3.036262722878472</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>44.02646277136193</v>
+        <v>39.00568915587209</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.99673979270156</v>
+        <v>53.09245261149344</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.37751237542128</v>
+        <v>54.03520422837845</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.61776942773687</v>
+        <v>0.5147168433736482</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>43.62504653427862</v>
+        <v>30.18685873916793</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>44.96565632702379</v>
+        <v>31.18651423464877</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>47.74811104658099</v>
+        <v>32.33558210714442</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>32.23823548152171</v>
+        <v>7.631378969431491</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>50.14863662065365</v>
+        <v>31.80617794878811</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>53.05199502675472</v>
+        <v>36.78001155957932</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>55.90263976473468</v>
+        <v>40.33378848866836</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>46.50843335771258</v>
+        <v>53.5883476730415</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>49.29349401458359</v>
+        <v>54.09456670634788</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.75347372459017</v>
+        <v>11.48058287499831</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>51.737512692358</v>
+        <v>50.06362040708525</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>54.65295954487024</v>
+        <v>67.56025472571953</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>57.50436226615484</v>
+        <v>68.09734665579944</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>46.72803517863836</v>
+        <v>48.1255131152406</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>49.51559609513356</v>
+        <v>50.7545680745533</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.98901621128213</v>
+        <v>8.156867499514927</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>51.97568383175941</v>
+        <v>47.54070094391207</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>54.88599690222786</v>
+        <v>64.70845485563885</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>57.73948753643437</v>
+        <v>66.48719531251137</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>45.88473970570931</v>
+        <v>37.82863209435382</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>48.6780300883197</v>
+        <v>41.62237395807992</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.15913506111434</v>
+        <v>8.350795108385732</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>51.13176114824867</v>
+        <v>45.94933692336532</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>54.03486242070256</v>
+        <v>59.15097186701429</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>56.89558275761648</v>
+        <v>63.22875486080633</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>7.329503817039459</v>
+        <v>4.978239068070522</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.38526002816877</v>
+        <v>8.19357433382196</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.62726267298601</v>
+        <v>6.226213232232041</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.24616664489564</v>
+        <v>7.593682700423155</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>9.409213957459153</v>
+        <v>8.457393368034481</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.22645802746608</v>
+        <v>12.87334680494723</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>8.728143929000552</v>
+        <v>1.600929338223438</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>23.85061235266726</v>
+        <v>13.63391556644928</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.10438950676203</v>
+        <v>21.16889564296289</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.72545687827524</v>
+        <v>21.68627604584097</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>10.81354554716084</v>
+        <v>10.06747992482791</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.69708976269158</v>
+        <v>26.20813436152077</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>8.947891941408997</v>
+        <v>-2.539157194358115</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.07314274201838</v>
+        <v>8.476818508805426</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.32233996582247</v>
+        <v>16.62632562245533</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.94615124811633</v>
+        <v>18.62023591344966</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>11.03064439386907</v>
+        <v>3.771898832640353</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.91675278832638</v>
+        <v>17.84739466757061</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>8.133837643265158</v>
+        <v>-4.560596910569217</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.24454891420626</v>
+        <v>5.162180912894186</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.48875725114329</v>
+        <v>11.34788046893226</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.11837538966813</v>
+        <v>14.43853637940047</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>10.2109604178726</v>
+        <v>0.2281369194841574</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.08227659481161</v>
+        <v>10.72112209211018</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.62729864631903</v>
+        <v>9.836238845899999</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.68713152120849</v>
+        <v>14.84445493082153</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.01160473646237</v>
+        <v>7.439916850175553</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.80768515341495</v>
+        <v>14.81791108025748</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.83591564216385</v>
+        <v>15.52045608062368</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>37.9863640602326</v>
+        <v>22.77311272303736</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.10406552200423</v>
+        <v>31.50325913166708</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.16808892168092</v>
+        <v>36.84391983780345</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>17.47230765855473</v>
+        <v>16.98495454364029</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.33638827139602</v>
+        <v>38.43656859839829</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.37460990394561</v>
+        <v>49.94342434975454</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.52763602809056</v>
+        <v>55.439079668667</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.31795660102598</v>
+        <v>22.03121120028258</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.38496155351391</v>
+        <v>30.3090411705575</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>17.70263564455987</v>
+        <v>11.54040019622521</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.56927065760917</v>
+        <v>32.57235300315335</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.60183299316165</v>
+        <v>42.87798702703682</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>39.75747356371853</v>
+        <v>50.58997726526152</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.48015650198501</v>
+        <v>11.21646941741304</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.55237691069394</v>
+        <v>20.24784729226293</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>16.87302385944479</v>
+        <v>7.584110577084889</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.72559117082908</v>
+        <v>26.17661677303675</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.75280305719293</v>
+        <v>32.39503362228261</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.91508978415226</v>
+        <v>42.04761532855616</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>11.70241624275107</v>
+        <v>-5.869358975918228</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.69173954692406</v>
+        <v>5.213002037909117</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.06641716639778</v>
+        <v>2.912549413588629</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.46102362585217</v>
+        <v>3.384544334216326</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>14.13843740902998</v>
+        <v>13.29165668725402</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.82352698705515</v>
+        <v>28.94226487357801</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>13.15855744825301</v>
+        <v>-10.51098875001563</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.22074577793944</v>
+        <v>9.380108249217656</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.60885809505223</v>
+        <v>16.78503048736425</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.00409948598143</v>
+        <v>15.94181507484057</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>15.59981894215836</v>
+        <v>11.3764579596134</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>32.35719809203976</v>
+        <v>39.01398412997003</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>13.39239447474504</v>
+        <v>-11.27582871572859</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.45737254087389</v>
+        <v>8.173135988910875</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.84122110014833</v>
+        <v>16.65242521974675</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.23874497811402</v>
+        <v>16.83367650111925</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>15.83081794839064</v>
+        <v>9.271217054149524</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>32.59083552025686</v>
+        <v>35.66269787914832</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.55823861919428</v>
+        <v>-10.67162987926708</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.60812650474845</v>
+        <v>8.401333367098268</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.98575726219156</v>
+        <v>15.64885999347181</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>35.38974123724547</v>
+        <v>17.13416015470455</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>14.99155366342153</v>
+        <v>8.54783970875949</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.73621743427332</v>
+        <v>32.07721461172142</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.39286130144917</v>
+        <v>30.01611623450891</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>36.22988034901339</v>
+        <v>31.92271534749933</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.56666721952485</v>
+        <v>10.91822977826444</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.26878152300151</v>
+        <v>31.5271387182119</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>41.4832483760753</v>
+        <v>33.54113187879413</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.41617985817019</v>
+        <v>37.48950264396468</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.93427586531913</v>
+        <v>49.3107678952346</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.77400014814905</v>
+        <v>50.73885473786633</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.08209631982592</v>
+        <v>14.46662479813213</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.85843121035091</v>
+        <v>49.49664427583276</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>43.08492937599186</v>
+        <v>63.1084590364753</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>46.01869249352931</v>
+        <v>64.24818161254285</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.16233747548258</v>
+        <v>45.45779394078662</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>38.00458268479272</v>
+        <v>48.98310226004025</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.32591084543117</v>
+        <v>12.1426747698927</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.10484921149406</v>
+        <v>47.52297642006032</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>43.32598039879943</v>
+        <v>60.73292525828329</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.26182696996555</v>
+        <v>63.17522171562405</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.30315588691526</v>
+        <v>38.08977980833098</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.15125419707577</v>
+        <v>42.59683121402297</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.47868928507307</v>
+        <v>12.72299202079438</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.24295923488089</v>
+        <v>46.46301632922413</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.45735295414219</v>
+        <v>56.32556262327915</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>45.40061708584442</v>
+        <v>60.87263589495294</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>0.5419843330949492</v>
+        <v>8.973676988824124</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.81534913113688</v>
+        <v>13.72933087697701</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>20.7134518041762</v>
+        <v>13.31779290717699</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.20287628801278</v>
+        <v>14.51437730098849</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1.700677249504722</v>
+        <v>5.801532573287815</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.64713180909763</v>
+        <v>8.393468077989084</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1.994929471658786</v>
+        <v>3.64287016631086</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.33981372422025</v>
+        <v>16.70231883253704</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.25227376827812</v>
+        <v>26.02619545498809</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.743067442264</v>
+        <v>26.38672744382115</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.156384422522747</v>
+        <v>1.997871353477105</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.17365710658189</v>
+        <v>15.66739062772047</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>2.233120174444755</v>
+        <v>0.9855333399235136</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>18.58115162228221</v>
+        <v>13.33640821788643</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.48886755449343</v>
+        <v>23.52863541371231</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.98221406306276</v>
+        <v>25.04559702794325</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>3.392394414659076</v>
+        <v>-2.235671873782618</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.41262063676078</v>
+        <v>9.825444698823565</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1.378962232781515</v>
+        <v>-2.405605745608856</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.71156469025397</v>
+        <v>9.402415230948673</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.61353936248308</v>
+        <v>17.79110952449905</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.11306565389673</v>
+        <v>20.39421593581631</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>2.532937372587678</v>
+        <v>-3.080726314511587</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.53752125752086</v>
+        <v>6.179580801915453</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.71946491264601</v>
+        <v>6.568210107684322</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.67350934018891</v>
+        <v>10.72557019995091</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.1651048042309</v>
+        <v>7.665450954297924</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.17662484936137</v>
+        <v>16.49794949475456</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.87852493822424</v>
+        <v>17.93327405667818</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.91991408752081</v>
+        <v>22.81776739639999</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.25457465451935</v>
+        <v>22.44617628116606</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.21215027017283</v>
+        <v>26.95877781752191</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.68206016470923</v>
+        <v>11.38582731078223</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.76634387976883</v>
+        <v>33.65005368419848</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>32.48108963399271</v>
+        <v>46.52266759324333</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>35.52412544134896</v>
+        <v>49.40142896073433</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.48749154180621</v>
+        <v>15.77191341524713</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.44786652460908</v>
+        <v>22.59004377222388</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>11.93103459467918</v>
+        <v>7.677867616825402</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.01825846965328</v>
+        <v>30.0802202202767</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>32.72714079314656</v>
+        <v>42.21851608951566</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.77253174368055</v>
+        <v>46.60596240617886</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.6083119148967</v>
+        <v>8.453764599469515</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.57423941759988</v>
+        <v>15.81297223958159</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>11.06257008398827</v>
+        <v>6.034627271538682</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.134919001201</v>
+        <v>26.91520885892918</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.83749396629532</v>
+        <v>35.24647544548326</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.88999801331043</v>
+        <v>41.32721529244503</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-0.4976295315035744</v>
+        <v>4.471173170140087</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.62165389142212</v>
+        <v>4.700469917838539</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.45128641591069</v>
+        <v>1.712377101856283</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>20.69087477191546</v>
+        <v>1.624676173497658</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>1.012798361828642</v>
+        <v>4.56929227755947</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>15.84082224170118</v>
+        <v>3.600106663000197</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>0.8788034754206979</v>
+        <v>-2.845964150636309</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.06561291471107</v>
+        <v>4.693344980453997</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.9086362092227</v>
+        <v>10.46610813567704</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.1490480821971</v>
+        <v>9.472213013108959</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>2.391915158926377</v>
+        <v>-2.144656955357874</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>17.28681235256437</v>
+        <v>6.761871946992798</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>1.105619454732959</v>
+        <v>-4.978882332426767</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.29556248230976</v>
+        <v>1.714352687499556</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.13402563024194</v>
+        <v>8.175730344345872</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.3768119912292</v>
+        <v>8.246087800759796</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>2.616297343098879</v>
+        <v>-5.673794179438897</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>17.51414047517342</v>
+        <v>1.566608962098389</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>0.2965724499635041</v>
+        <v>-6.169653414556159</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>15.47153583175243</v>
+        <v>0.3469709569799733</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>19.30482827355601</v>
+        <v>5.682309278868747</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.55362295800532</v>
+        <v>6.842110076611988</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1.80277795075426</v>
+        <v>-4.941436142114249</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.68546397124241</v>
+        <v>0.04449622216866089</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.88653831158965</v>
+        <v>0.2972870486781432</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.56912737651599</v>
+        <v>1.356789654973333</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>9.197173019879479</v>
+        <v>7.632840363723719</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.03581913392468</v>
+        <v>11.89735830795462</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.61627030968859</v>
+        <v>12.96051065786645</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.40345525010931</v>
+        <v>15.59677818864703</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>20.3404382747181</v>
+        <v>11.32758709692484</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.02593284127835</v>
+        <v>12.5226724251839</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.63572019315318</v>
+        <v>8.897742086712295</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.54312369002506</v>
+        <v>25.15144851543814</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.13551421129044</v>
+        <v>37.0318550244085</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.92387733567273</v>
+        <v>37.66830398806783</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.5619810227812</v>
+        <v>5.363798141614886</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.25008901683225</v>
+        <v>8.707260412195811</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.87233149227529</v>
+        <v>5.568528391137267</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.78265841865877</v>
+        <v>21.76059731402545</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.36948236267833</v>
+        <v>32.92801508787571</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.16003428279388</v>
+        <v>34.96838155997465</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19.72973017199619</v>
+        <v>0.8753806914342519</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.4232273739615</v>
+        <v>4.822348622522568</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>10.04964460734107</v>
+        <v>4.983054872604679</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.94552140365398</v>
+        <v>20.18381162407382</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.52655668803286</v>
+        <v>28.03293219167101</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>32.32397827150143</v>
+        <v>31.78040819220102</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>18.32117743037951</v>
+        <v>16.91085907106572</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.99247327069088</v>
+        <v>27.27438322254127</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>38.6531787542312</v>
+        <v>23.44956801921344</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>41.42665466199627</v>
+        <v>25.27760574350697</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>20.07927937222386</v>
+        <v>11.62246732157667</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>36.47648131357358</v>
+        <v>18.09419127490181</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.86543897081935</v>
+        <v>16.60591576633043</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.60921338609869</v>
+        <v>37.05671080106642</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>40.28519241987986</v>
+        <v>46.69816007305529</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>43.06090856462387</v>
+        <v>47.21913353621713</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.62512537114475</v>
+        <v>11.23025985254063</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>38.09421980044161</v>
+        <v>30.72991673526245</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>20.10393057028689</v>
+        <v>15.42250494284751</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.85091002332123</v>
+        <v>35.57774583947655</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>40.52196426902695</v>
+        <v>46.07456342026953</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>43.30061402071505</v>
+        <v>47.88094026572585</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.8609005262016</v>
+        <v>8.009135535047456</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>38.33302071702283</v>
+        <v>26.31096572917003</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>19.22510377375225</v>
+        <v>7.185196383159663</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.95691940335399</v>
+        <v>26.27665845783109</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>39.62082806703668</v>
+        <v>33.1309928955474</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>42.40564458746847</v>
+        <v>36.28231987863442</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.97788594434437</v>
+        <v>4.275771207622874</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>37.43463886146426</v>
+        <v>19.73725612319032</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.26984709766662</v>
+        <v>12.53735309557718</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.49603074803557</v>
+        <v>14.93696165257561</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.26435577105163</v>
+        <v>13.55277778148723</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.67146642183022</v>
+        <v>23.86341985045338</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.1238583805454</v>
+        <v>22.66106803594969</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.45716887951033</v>
+        <v>27.43703698014487</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.89659831291164</v>
+        <v>38.31359256096941</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.12710988593249</v>
+        <v>40.45264628040428</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.8716911169419</v>
+        <v>20.69613672500897</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.35251047128014</v>
+        <v>46.70393395730522</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.81848813731251</v>
+        <v>61.15245535023769</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>53.15447700690124</v>
+        <v>63.34467556377558</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.12911802781399</v>
+        <v>33.19522756021935</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.36277526580736</v>
+        <v>37.97677724700933</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.12217473553529</v>
+        <v>18.17618531368574</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.60603187674773</v>
+        <v>44.71592457766767</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.0659043824194</v>
+        <v>58.52078833556706</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>53.40465180212361</v>
+        <v>62.50659690986465</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.22557782001446</v>
+        <v>20.46149045299456</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.4647934641674</v>
+        <v>26.45385790459279</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.22905821535009</v>
+        <v>14.33834132968841</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.69827423384406</v>
+        <v>39.03152901663596</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>49.15048846619447</v>
+        <v>46.4847871444584</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.49627969218631</v>
+        <v>52.90741751467067</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>10.45943628113623</v>
+        <v>16.88523618904192</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.4587106492809</v>
+        <v>37.23192387248703</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.8117756585288</v>
+        <v>37.23569889634093</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.39403672890559</v>
+        <v>38.50719549616489</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>11.45784317917451</v>
+        <v>10.97919617891356</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.13268057457793</v>
+        <v>26.10686484790325</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>11.93957242614279</v>
+        <v>13.59025559702585</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.01214147239214</v>
+        <v>42.63147937965205</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.37894249473551</v>
+        <v>52.87692370878399</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.96229854860852</v>
+        <v>52.88702243879543</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.94159869828517</v>
+        <v>10.70964546060619</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.68914070248475</v>
+        <v>37.59321498387418</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>12.17534170939984</v>
+        <v>10.59587672121626</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.25072948194292</v>
+        <v>38.8986981820871</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.61310716771875</v>
+        <v>50.0100990813495</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.1990642298085</v>
+        <v>51.3098108923017</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.17536631921317</v>
+        <v>6.51207999423691</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.92554955875634</v>
+        <v>31.71403446236645</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>11.32088267721738</v>
+        <v>10.00177531800789</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.38091421746287</v>
+        <v>37.64352225042586</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.7369901604776</v>
+        <v>46.9411884445573</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.32951554775129</v>
+        <v>49.56840234736604</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>12.31449556015225</v>
+        <v>4.327673046607096</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.04903053352391</v>
+        <v>26.3457571448349</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.68777530335296</v>
+        <v>26.04010802607554</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.71102766398403</v>
+        <v>28.95006697634982</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>18.28685162623626</v>
+        <v>6.731654799860607</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.00250143530684</v>
+        <v>25.93745659010229</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.2158693031339</v>
+        <v>28.77212922210498</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.35130976568189</v>
+        <v>34.40295492338058</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.2519862657277</v>
+        <v>46.78494796376098</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.27848299887882</v>
+        <v>49.38831756150343</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>19.82699966746013</v>
+        <v>11.21925781511083</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.61726207730391</v>
+        <v>44.7282209081938</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.84272657898569</v>
+        <v>59.00920455175888</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.9795651455788</v>
+        <v>61.92915566028784</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.48260377773209</v>
+        <v>40.10457689093901</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.51196884716268</v>
+        <v>45.26940950777404</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.07398958879703</v>
+        <v>6.950845875555771</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.86685232286298</v>
+        <v>40.41675103118046</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.08672943466313</v>
+        <v>53.84363641550386</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.22599565018917</v>
+        <v>58.5272540247563</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.60162967188781</v>
+        <v>30.53509297982658</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.63690882277843</v>
+        <v>36.86588967519964</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>19.20455507805016</v>
+        <v>6.230046083619179</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.98250087769227</v>
+        <v>37.45014724368959</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>40.19569266126771</v>
+        <v>47.11615111362177</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>43.34245934999995</v>
+        <v>54.19788436908478</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>5.418191675525131</v>
+        <v>12.97709299933924</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.36459860935265</v>
+        <v>34.02054407574244</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.81679568554821</v>
+        <v>31.56914094272877</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.5428475883722</v>
+        <v>32.15049523127879</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>7.647651997293689</v>
+        <v>11.45241951486544</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.26285608183601</v>
+        <v>28.62501742545626</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>7.049647423193219</v>
+        <v>9.411903874376517</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.07620663519852</v>
+        <v>40.58085046843811</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>30.54546162466387</v>
+        <v>51.68088139502726</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.27297273426994</v>
+        <v>50.77275411882277</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9.283477965275035</v>
+        <v>9.71926026474587</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.97816233294125</v>
+        <v>40.34718412009511</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>7.314363380812733</v>
+        <v>7.07253859841741</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.34407233651417</v>
+        <v>38.13966602516477</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.80790119666833</v>
+        <v>50.36081104196785</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.53841991307752</v>
+        <v>50.6749399547745</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>9.545287079626243</v>
+        <v>4.973066068782316</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.24294348623724</v>
+        <v>34.56508799154426</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>6.366436942682348</v>
+        <v>4.906058738642795</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.38010484491139</v>
+        <v>35.27445861868977</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.83658919679007</v>
+        <v>44.80620357950734</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.57392712224915</v>
+        <v>46.42729261895984</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>8.591473568477415</v>
+        <v>4.26973632087007</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.27283728723514</v>
+        <v>30.8952125578539</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.77335184532886</v>
+        <v>26.87762141244877</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.99671691143313</v>
+        <v>28.88508342635664</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>15.28121738104687</v>
+        <v>8.132649015109319</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.97635724541597</v>
+        <v>27.56989592992709</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>39.21831941170332</v>
+        <v>30.4154009809999</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.546747466835</v>
+        <v>34.7310131772223</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.49906466135322</v>
+        <v>51.73290401868447</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>34.72619419427201</v>
+        <v>53.29816067365363</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.97964911940921</v>
+        <v>11.3537469771264</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.7562733515895</v>
+        <v>46.86825446350957</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.01349562692288</v>
+        <v>64.9701270716848</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.34375860509751</v>
+        <v>66.41030324974412</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.75696426594915</v>
+        <v>45.01184343372991</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.98734521422875</v>
+        <v>49.20985156002937</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.25684384650075</v>
+        <v>7.173133273834765</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>37.03645128222806</v>
+        <v>43.39787602463356</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>41.28697990175998</v>
+        <v>60.67084773133062</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.62005568132022</v>
+        <v>63.83827946601718</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.78154726686665</v>
+        <v>35.70854425430063</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.0180816718654</v>
+        <v>41.18595848897903</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.29426715430638</v>
+        <v>8.377982566662233</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.05830870666576</v>
+        <v>42.66013539575573</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>40.30095037237869</v>
+        <v>54.62022540240967</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>43.64185270472171</v>
+        <v>60.35754163693843</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-31.73282674100647</v>
+        <v>17.87834707800813</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-10.15847468431978</v>
+        <v>36.02788609816341</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-3.328434344990352</v>
+        <v>37.40842723513472</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-0.6102008571865865</v>
+        <v>37.21494069307073</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-28.17896094586408</v>
+        <v>19.34082326771112</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-6.969235032459927</v>
+        <v>32.58705647528417</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-29.95041699552576</v>
+        <v>14.70428555018082</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-8.285456418648481</v>
+        <v>42.86135374455688</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>-1.433661657547363</v>
+        <v>57.52570885605643</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1.285697325580631</v>
+        <v>56.01173379923155</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-26.38911059189608</v>
+        <v>16.32076034669892</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-5.089518154201951</v>
+        <v>42.42459665161773</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-29.63191005415758</v>
+        <v>14.88997222785444</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-7.963565882906413</v>
+        <v>43.09980050100552</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-1.119001860036914</v>
+        <v>58.64981960267046</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>1.603975405150369</v>
+        <v>58.25487271051526</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-26.0743835873451</v>
+        <v>13.61454754432737</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-4.771627582867406</v>
+        <v>38.85155986563548</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-30.72759423024925</v>
+        <v>12.67609401490412</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-9.077089645039022</v>
+        <v>40.40712978863169</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-2.239567346639132</v>
+        <v>53.2532038070981</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>0.4908591291258189</v>
+        <v>53.87246656907465</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-27.17648305293456</v>
+        <v>13.57833145957951</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-5.891852942547714</v>
+        <v>36.47853255334236</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-1.303908715300148</v>
+        <v>31.66907169003518</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>2.003492081999264</v>
+        <v>33.84988845773304</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-17.48014470339292</v>
+        <v>13.82798207453111</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>4.972805145348893</v>
+        <v>29.4306035021517</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>11.42065750675235</v>
+        <v>35.7411180631246</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>14.85331504636252</v>
+        <v>39.0045360792337</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>0.5901451856499094</v>
+        <v>54.84101523238262</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3.901354168727813</v>
+        <v>56.7309934771971</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-15.6160120766324</v>
+        <v>16.82830627252486</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.929059021238338</v>
+        <v>47.75143102010878</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>13.39659070089272</v>
+        <v>69.35536166526445</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.83084187914264</v>
+        <v>70.07117758373235</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>0.8992425184348374</v>
+        <v>50.68364962971518</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>4.214346630381772</v>
+        <v>54.99919585156195</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-15.28499675730131</v>
+        <v>14.4633918332764</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>7.263242351618153</v>
+        <v>46.15057029808091</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>13.72221900724997</v>
+        <v>67.13586751431197</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.15984675725882</v>
+        <v>69.45715169461275</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-0.2259427466255177</v>
+        <v>42.57993564134431</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>3.095843815277932</v>
+        <v>47.89719048582776</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-16.39589272391519</v>
+        <v>15.12032628298908</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>6.135106619514382</v>
+        <v>45.41198487512298</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>12.58621449574279</v>
+        <v>60.9502988466155</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.0324562541029</v>
+        <v>65.51067022457747</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>3.20349329187518</v>
+        <v>9.723090879913823</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.67346299354774</v>
+        <v>28.53953037825071</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.8820550729585</v>
+        <v>25.93342197234161</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.58766403656973</v>
+        <v>27.56117422454199</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>5.135365391064381</v>
+        <v>7.827574324207255</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.2668625146953</v>
+        <v>22.76334381156974</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>4.800502705231704</v>
+        <v>10.24808227893629</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.34996606625415</v>
+        <v>40.07947889778849</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.57397558594661</v>
+        <v>49.24311131159954</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.28076408147314</v>
+        <v>49.25911310262368</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>6.736672156219653</v>
+        <v>8.712896524371494</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>24.94699631319401</v>
+        <v>37.63242693953243</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>5.061699394153642</v>
+        <v>7.823917050493762</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>23.6142047507278</v>
+        <v>37.00729555569237</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.83307154255411</v>
+        <v>47.67441453197751</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.54274326932122</v>
+        <v>48.99672232289191</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>6.995147991012495</v>
+        <v>4.880505141054556</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.20832923452821</v>
+        <v>32.30924149005899</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>4.127183282409476</v>
+        <v>4.345063396518768</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>22.66306328529765</v>
+        <v>31.56675127457435</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.8756044735368</v>
+        <v>40.29374097142077</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.59227095942954</v>
+        <v>43.42710688282781</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>6.054669651042884</v>
+        <v>1.123253045600173</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>24.25095732973865</v>
+        <v>24.34509330918763</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.59139811175883</v>
+        <v>20.58808063730349</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.76814280889892</v>
+        <v>22.35610513521947</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>12.44431737762714</v>
+        <v>5.827079824802407</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.68077948019474</v>
+        <v>22.92639982024586</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.69615393523138</v>
+        <v>24.31546855700872</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.99247522504365</v>
+        <v>29.1617086911297</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.28062914755137</v>
+        <v>45.89719826812832</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.46078962164566</v>
+        <v>47.04001736520108</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>14.10546035277522</v>
+        <v>11.60835061302933</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.42276821226815</v>
+        <v>45.59924129635308</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>37.45180991930778</v>
+        <v>59.53791888277221</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.74965033312363</v>
+        <v>61.32326651683894</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.53536642467071</v>
+        <v>40.07334855863841</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.71867779320728</v>
+        <v>43.89410261843943</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>14.3782111104797</v>
+        <v>7.028909140980037</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.6983399062787</v>
+        <v>41.17700101398424</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>37.72100446450018</v>
+        <v>54.53002342643344</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.02154463839971</v>
+        <v>58.22089646147418</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.57356199413204</v>
+        <v>27.74501096075141</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.76319847726739</v>
+        <v>33.17581038171156</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>13.4292072323481</v>
+        <v>3.686242771638312</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.73321018651088</v>
+        <v>34.42695007619896</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.74905018393425</v>
+        <v>43.6416372405237</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.05757768891783</v>
+        <v>50.32353355933324</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>4.232864160096499</v>
+        <v>6.250386809827489</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.97040222293653</v>
+        <v>13.37310347576873</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.00025351302785</v>
+        <v>12.1470940606436</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.59851713913129</v>
+        <v>12.99090262790624</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>6.849313380955616</v>
+        <v>9.531161325433917</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.3128888315844</v>
+        <v>18.35430338837528</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>5.742741710072877</v>
+        <v>3.22810647854509</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.55307662507581</v>
+        <v>19.60308750925065</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.59794848000673</v>
+        <v>28.99890441381318</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.19819262489232</v>
+        <v>28.76235630686675</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>8.364263276108874</v>
+        <v>11.31149259271542</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>24.90013546960653</v>
+        <v>32.56469829472572</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>5.985703915417734</v>
+        <v>-0.8513593087546951</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.7991652353185</v>
+        <v>14.92502093990393</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.83882602158252</v>
+        <v>24.69200361598258</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.44204000817723</v>
+        <v>25.80970869606583</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>8.604372190788967</v>
+        <v>5.44909846607117</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.1431742210364</v>
+        <v>25.08859953480937</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>5.106046401826909</v>
+        <v>-1.241766552098362</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.90421582323998</v>
+        <v>13.57730521797275</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.93734751642957</v>
+        <v>21.78157920417978</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.54664528999895</v>
+        <v>24.30812493964907</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>7.719858209989235</v>
+        <v>6.200892554115079</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.24311517858967</v>
+        <v>22.68678508658877</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.44039206239296</v>
+        <v>15.26626351953993</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.51512673704822</v>
+        <v>19.01946221425222</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.1707342422744</v>
+        <v>7.245550226168664</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.66153332532774</v>
+        <v>18.00603133273966</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>35.44123081057768</v>
+        <v>17.99992288906046</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>38.60879840321139</v>
+        <v>23.4328385013356</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.0365893661904</v>
+        <v>39.96600479708854</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.11540987275161</v>
+        <v>43.73147098343829</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.74663867715743</v>
+        <v>16.33293630330153</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>33.31152341969503</v>
+        <v>42.09917291960102</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>37.10438079740302</v>
+        <v>54.83490514604186</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>40.27435701592923</v>
+        <v>58.07851859502816</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.27312654934331</v>
+        <v>31.41451055775523</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.35513924442839</v>
+        <v>38.01510770339894</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.00106239021507</v>
+        <v>10.92606190304468</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.56890056310914</v>
+        <v>36.82450964002363</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.355335859551</v>
+        <v>48.31412952381649</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>40.52812126657483</v>
+        <v>53.60562385675406</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.36833891602398</v>
+        <v>24.94459098015309</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.45586013049233</v>
+        <v>32.92234488345529</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.10646067845881</v>
+        <v>9.635041220776095</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.65950996001057</v>
+        <v>33.21966980512303</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.43892950886485</v>
+        <v>40.28977884927583</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.61871060273585</v>
+        <v>48.22162803729322</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-32.54588718305678</v>
+        <v>5.228788985114171</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-11.07729509857969</v>
+        <v>17.95139186733998</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-4.223153676497065</v>
+        <v>17.53492098817066</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-1.485075222253553</v>
+        <v>18.55805149791403</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-28.97706847327282</v>
+        <v>9.013950763195894</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-7.869576282274418</v>
+        <v>18.05215167171754</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-30.76535711455884</v>
+        <v>3.398369820934469</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-9.206434354270222</v>
+        <v>26.23554951734995</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-2.330615762710014</v>
+        <v>38.69046198833352</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>0.408714092017183</v>
+        <v>38.56248132257036</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-27.18901618982895</v>
+        <v>6.952087638642322</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-5.991928589273409</v>
+        <v>28.95461019131778</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-30.44695643096163</v>
+        <v>4.600273417317677</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-8.884632086807933</v>
+        <v>27.54397800848299</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-2.016125337647306</v>
+        <v>40.58177578222886</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>0.7268611702995535</v>
+        <v>41.64256617198279</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-26.87439011619995</v>
+        <v>4.836764519554112</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-5.674125882097164</v>
+        <v>26.00605744638289</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-31.543254956024</v>
+        <v>1.522779240471309</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-9.998774064135148</v>
+        <v>23.79138660329597</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-3.137205448381743</v>
+        <v>34.2212797400523</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>-0.3868202865870503</v>
+        <v>36.3135580236377</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-27.9770986084995</v>
+        <v>4.406229212347458</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-6.794962007715769</v>
+        <v>23.02955769573787</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-2.185533605940127</v>
+        <v>14.39108965544513</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1.143525922376984</v>
+        <v>19.31293617893855</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-18.19191209242087</v>
+        <v>0.5942106397860449</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>4.161646720837096</v>
+        <v>11.86953877681993</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>10.62841252117867</v>
+        <v>14.97922640894265</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>14.08022151718341</v>
+        <v>20.79228427193249</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>-0.293627798790288</v>
+        <v>38.110689267692</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>3.039364576567137</v>
+        <v>43.00442890219843</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-16.32910589016021</v>
+        <v>5.629116573808862</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>6.116301973643104</v>
+        <v>32.37709211080984</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>12.60263463401705</v>
+        <v>50.44687248033758</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.05617693939059</v>
+        <v>53.97729859707584</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>0.01531179072206346</v>
+        <v>34.34769991792584</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>3.352237117574058</v>
+        <v>41.75757853747739</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-15.99813187660957</v>
+        <v>3.9034745910648</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>6.450459668186571</v>
+        <v>31.47482440531414</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>12.92815653414082</v>
+        <v>48.66145214659301</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.38511776417278</v>
+        <v>53.89094201963964</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>-1.110385036221749</v>
+        <v>25.99897304201462</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>2.233176026200893</v>
+        <v>34.38649727041924</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-17.10980301299187</v>
+        <v>3.12403713875452</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>5.321551590463384</v>
+        <v>29.04603456373762</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.79149599875979</v>
+        <v>40.86206904297129</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.25701244497875</v>
+        <v>48.33569534258711</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>15.3707810344695</v>
+        <v>15.29366324299145</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.55998006006406</v>
+        <v>37.23800240850927</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.19422564727012</v>
+        <v>41.11151692921315</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.6538282685205</v>
+        <v>41.16785968031097</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>16.63325034066974</v>
+        <v>13.88091794301552</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.49884633715917</v>
+        <v>30.94882749748471</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>16.86151584972528</v>
+        <v>10.95947652224814</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.12372301786957</v>
+        <v>41.95568779361388</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>37.77306865985675</v>
+        <v>57.61666042133696</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>40.23372504754966</v>
+        <v>56.24308726497036</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>18.12687260778836</v>
+        <v>11.75998432301524</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.06482063010851</v>
+        <v>40.83286508644471</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>17.09414507313863</v>
+        <v>9.248564398049567</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.35943843706089</v>
+        <v>40.20167896319215</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.00399930266675</v>
+        <v>57.1390098637456</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.46732447404625</v>
+        <v>56.79259199495183</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.3574856121376</v>
+        <v>9.343944294984865</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.29833032250734</v>
+        <v>37.5034327340605</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>16.2434592528514</v>
+        <v>6.34901968997308</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.49407826533442</v>
+        <v>37.07464016541553</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>37.1316528019838</v>
+        <v>51.81278698967317</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.60128307890333</v>
+        <v>52.60839650913491</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>17.50114159636302</v>
+        <v>8.692141417641132</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.42707018087889</v>
+        <v>34.63895670241517</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.31772781939677</v>
+        <v>32.49187143717366</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.23222454256155</v>
+        <v>34.08974920485849</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>23.62534654844793</v>
+        <v>7.963283167966249</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>41.48152131339678</v>
+        <v>27.89978980349847</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>44.96536891938637</v>
+        <v>33.63683708845512</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>47.96558372266107</v>
+        <v>37.63071406634104</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>37.8929569195878</v>
+        <v>53.41641408821163</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>40.81060131181604</v>
+        <v>54.49750354488755</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.17777876266624</v>
+        <v>11.81202994158971</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>43.10812421198325</v>
+        <v>46.4102254397744</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>46.60541693689027</v>
+        <v>65.25172474640185</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>49.6070459351393</v>
+        <v>66.38679273712046</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>38.12038281803373</v>
+        <v>49.58960494432378</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>41.04091343158286</v>
+        <v>52.94540514629144</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>25.42242078506982</v>
+        <v>9.608463309106515</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>43.35564960121672</v>
+        <v>44.94334580111838</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>46.84699542666812</v>
+        <v>63.20257904932912</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>49.85112191705269</v>
+        <v>65.79175028462723</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>37.2439092244663</v>
+        <v>41.94618256386401</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>40.17014267321797</v>
+        <v>46.2714637877304</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>24.55662034277404</v>
+        <v>9.026540612424569</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>42.47561905555646</v>
+        <v>43.04603601299788</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>45.95958319540176</v>
+        <v>56.66725574573354</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>48.97088849156615</v>
+        <v>61.45750033844629</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>6.961379859184548</v>
+        <v>7.682977995007384</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>25.2262748044659</v>
+        <v>26.5933374467005</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.21788357902204</v>
+        <v>24.94674656369322</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>31.92207188997091</v>
+        <v>25.894573701228</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>8.87808225099892</v>
+        <v>9.267404495164737</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.80994174967993</v>
+        <v>24.53388507460519</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>8.547727133318087</v>
+        <v>9.263371013302923</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.89137200441431</v>
+        <v>39.26467882582872</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>30.89770334611222</v>
+        <v>48.78266974628689</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>33.60300003860671</v>
+        <v>48.14843953914022</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>10.46812818110323</v>
+        <v>10.13711239480173</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>28.47806008002189</v>
+        <v>39.36417822856652</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>8.804437761719688</v>
+        <v>7.548515080824718</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>27.15113169935654</v>
+        <v>37.0067171275301</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>31.15229420388197</v>
+        <v>47.85908407238603</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.8604128672253</v>
+        <v>48.55460369489026</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>10.72200687515106</v>
+        <v>6.474458077202847</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>28.73480262824201</v>
+        <v>34.29442085588798</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>7.882093484594792</v>
+        <v>3.483683145600107</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>26.21227627434946</v>
+        <v>30.94543412851061</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>30.20720092258384</v>
+        <v>40.24463295207788</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>32.92231127564896</v>
+        <v>42.71193457918517</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>9.794038897565553</v>
+        <v>2.758456422129242</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.79007198718012</v>
+        <v>26.40284918897491</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>29.92797419382417</v>
+        <v>22.1265032718405</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>33.09614536750262</v>
+        <v>24.09042050335333</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>15.7362890627654</v>
+        <v>5.832393972530404</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>34.74222241805951</v>
+        <v>22.47484342647967</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>38.55497106546949</v>
+        <v>22.4978005383056</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>41.83664354206186</v>
+        <v>27.51079004341106</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>31.60459185195482</v>
+        <v>47.05273506327275</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>34.7760568450078</v>
+        <v>48.38489324937822</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.38447075991353</v>
+        <v>12.11306121312362</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>36.47046233516772</v>
+        <v>45.60401916350867</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>40.29624232153352</v>
+        <v>57.94250524925202</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>43.5793688843108</v>
+        <v>59.96155367466152</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>31.85475232973741</v>
+        <v>41.40620852840932</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>35.02929408158003</v>
+        <v>45.40431721421038</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>17.65252209337649</v>
+        <v>7.702068524559706</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>36.74134241486518</v>
+        <v>41.40706394237804</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>40.56076015753047</v>
+        <v>53.1340764967941</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>43.84653971956099</v>
+        <v>57.0772517768458</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>30.9056510084325</v>
+        <v>29.39714167674719</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.08653300158506</v>
+        <v>35.0374890877272</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>16.71610113356188</v>
+        <v>4.104366736841726</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>35.78887412217725</v>
+        <v>34.39888170820845</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>39.60157052374547</v>
+        <v>42.16169004106372</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>42.89531667970365</v>
+        <v>49.14158691283933</v>
       </c>
     </row>
   </sheetData>
